--- a/doc/flask_LemonGo.xlsx
+++ b/doc/flask_LemonGo.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18570" windowHeight="9570"/>
+    <workbookView windowWidth="24135" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="work order" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -16,9 +17,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -30,67 +31,106 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,6 +146,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -120,55 +168,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,13 +184,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -201,49 +316,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,115 +358,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,21 +375,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -409,18 +395,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -436,6 +415,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -458,19 +461,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,10 +481,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -492,133 +493,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -754,6 +755,53 @@
         <a:xfrm>
           <a:off x="0" y="3943350"/>
           <a:ext cx="5904865" cy="4561840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>398145</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="342900"/>
+          <a:ext cx="14114145" cy="5266690"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1059,7 +1107,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -1070,4 +1118,21 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/flask_LemonGo.xlsx
+++ b/doc/flask_LemonGo.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24135" windowHeight="11640" activeTab="1"/>
+    <workbookView windowWidth="24135" windowHeight="11070" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="work order" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -17,9 +18,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -32,12 +33,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -53,47 +77,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -105,6 +99,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -114,23 +140,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,27 +154,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -184,187 +185,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,42 +379,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -437,23 +412,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -467,11 +438,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,10 +482,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -493,133 +494,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -802,6 +803,263 @@
         <a:xfrm>
           <a:off x="0" y="342900"/>
           <a:ext cx="14114145" cy="5266690"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>408940</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="342900"/>
+          <a:ext cx="6581140" cy="4580890"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>656590</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>56515</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="5314950"/>
+          <a:ext cx="6142990" cy="4171315"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85090</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>132715</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="9944100"/>
+          <a:ext cx="6257290" cy="3904615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247015</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>113665</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="14230350"/>
+          <a:ext cx="5733415" cy="4742815"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>551815</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>113665</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="19202400"/>
+          <a:ext cx="6038215" cy="4228465"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504190</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>170815</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="23660100"/>
+          <a:ext cx="6676390" cy="5828665"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1125,7 +1383,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
@@ -1135,4 +1393,21 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="B139" sqref="B139"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>